--- a/config/config_mssql.xlsx
+++ b/config/config_mssql.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>5000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">

--- a/config/config_mssql.xlsx
+++ b/config/config_mssql.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/config_mssql.xlsx
+++ b/config/config_mssql.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
